--- a/Dados HC 34 barras.xlsx
+++ b/Dados HC 34 barras.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sesibahia-my.sharepoint.com/personal/leonardo_simoes_fbter_org_br/Documents/centro_comp/host_cap/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED575B0E26A92C4C1C45400D7E79E885CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A8A89A-0F23-4357-A417-EA334ECF202B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>quantidade de barras utilizadas</t>
   </si>
@@ -64,10 +58,25 @@
     <t>sobrecarga</t>
   </si>
   <si>
+    <t>Barra com sobretensão</t>
+  </si>
+  <si>
     <t>numero de iteracoes</t>
   </si>
   <si>
+    <t>Linha com sobrecarga</t>
+  </si>
+  <si>
     <t>barras com fotovoltaico inserido</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>806</t>
   </si>
   <si>
     <t>[]</t>
@@ -130,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,19 +203,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -248,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,27 +281,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,24 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,34 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="134.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +546,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -622,22 +573,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.358305278561303</v>
+        <v>192.2064357604126</v>
       </c>
       <c r="H2">
-        <v>-113.6736239620185</v>
+        <v>-2.671733330489496</v>
       </c>
       <c r="I2">
-        <v>406.85293881820343</v>
+        <v>1602.702466772173</v>
       </c>
       <c r="J2">
-        <v>-698.11166522655321</v>
+        <v>192.0026689883406</v>
       </c>
       <c r="K2">
-        <v>1.008200357119009</v>
+        <v>0.8088403901978664</v>
       </c>
       <c r="L2">
-        <v>1.0337446556089629</v>
+        <v>1.049997813350426</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -648,46 +599,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>226</v>
+        <v>976</v>
       </c>
       <c r="C3">
-        <v>214.54030191053201</v>
+        <v>926.5120539499162</v>
       </c>
       <c r="D3">
-        <v>226</v>
+        <v>976</v>
       </c>
       <c r="E3">
-        <v>214.54030191053201</v>
+        <v>926.5120539499162</v>
       </c>
       <c r="F3">
-        <v>1.2411059615487829E-5</v>
+        <v>0.003549999823597318</v>
       </c>
       <c r="G3">
-        <v>37.541259454456487</v>
+        <v>82.47098857391339</v>
       </c>
       <c r="H3">
-        <v>-117.1452471639974</v>
+        <v>-60.63536024143306</v>
       </c>
       <c r="I3">
-        <v>190.8775753738405</v>
+        <v>734.8519981071069</v>
       </c>
       <c r="J3">
-        <v>-705.57819341269521</v>
+        <v>136.2564780058327</v>
       </c>
       <c r="K3">
-        <v>1.0166029633064371</v>
+        <v>0.8784484613077966</v>
       </c>
       <c r="L3">
-        <v>1.0499928260921789</v>
+        <v>1.049999073152387</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -695,49 +652,55 @@
       <c r="N3" t="b">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>227</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>977</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>221</v>
+        <v>671</v>
       </c>
       <c r="C4">
-        <v>209.79383433379559</v>
+        <v>636.976080296879</v>
       </c>
       <c r="D4">
-        <v>442</v>
+        <v>1342</v>
       </c>
       <c r="E4">
-        <v>419.58766866759129</v>
+        <v>1273.952160593758</v>
       </c>
       <c r="F4">
-        <v>2.010808550744514E-5</v>
+        <v>0.0009342257022674404</v>
       </c>
       <c r="G4">
-        <v>36.441067183441099</v>
+        <v>40.50406091955352</v>
       </c>
       <c r="H4">
-        <v>-118.6585205038043</v>
+        <v>-100.885054371939</v>
       </c>
       <c r="I4">
-        <v>-14.642582092345551</v>
+        <v>355.6144244802507</v>
       </c>
       <c r="J4">
-        <v>-709.02157606073467</v>
+        <v>80.52223692157035</v>
       </c>
       <c r="K4">
-        <v>1.017716546014908</v>
+        <v>0.8925495034528779</v>
       </c>
       <c r="L4">
-        <v>1.0497710809541401</v>
+        <v>1.049999741535928</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -745,49 +708,55 @@
       <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>222</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>672</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>163</v>
+        <v>435</v>
       </c>
       <c r="C5">
-        <v>154.73481653334369</v>
+        <v>412.9426339406739</v>
       </c>
       <c r="D5">
-        <v>489</v>
+        <v>1305</v>
       </c>
       <c r="E5">
-        <v>464.20444960003101</v>
+        <v>1238.827901822022</v>
       </c>
       <c r="F5">
-        <v>1.1513215151126131E-5</v>
+        <v>0.0002098170630322897</v>
       </c>
       <c r="G5">
-        <v>35.170586539134732</v>
+        <v>23.80804621285984</v>
       </c>
       <c r="H5">
-        <v>-120.32894375446971</v>
+        <v>-112.6435314554389</v>
       </c>
       <c r="I5">
-        <v>-61.0490189584945</v>
+        <v>370.4987930200427</v>
       </c>
       <c r="J5">
-        <v>-712.40075251661335</v>
+        <v>57.24573198536861</v>
       </c>
       <c r="K5">
-        <v>1.0192823386224701</v>
+        <v>0.8925408616159626</v>
       </c>
       <c r="L5">
-        <v>1.0499167871854009</v>
+        <v>1.04999983120004</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -795,49 +764,55 @@
       <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>164</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>436</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c r="C6">
-        <v>115.81378855321471</v>
+        <v>307.5710595838751</v>
       </c>
       <c r="D6">
-        <v>488</v>
+        <v>1296</v>
       </c>
       <c r="E6">
-        <v>463.255154212859</v>
+        <v>1230.284238335501</v>
       </c>
       <c r="F6">
-        <v>8.2106791624028112E-6</v>
+        <v>0.0001492063106715023</v>
       </c>
       <c r="G6">
-        <v>34.941023978508127</v>
+        <v>22.5403901247681</v>
       </c>
       <c r="H6">
-        <v>-120.7312242133832</v>
+        <v>-112.5783290011108</v>
       </c>
       <c r="I6">
-        <v>-60.497513195490001</v>
+        <v>375.6534472772798</v>
       </c>
       <c r="J6">
-        <v>-714.88884425790991</v>
+        <v>51.40500702000391</v>
       </c>
       <c r="K6">
-        <v>1.0193167286683951</v>
+        <v>0.8924839556864774</v>
       </c>
       <c r="L6">
-        <v>1.0499556536872059</v>
+        <v>1.049999853358444</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -845,49 +820,55 @@
       <c r="N6" t="b">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>123</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <v>325</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="C7">
-        <v>92.081454976000799</v>
+        <v>245.8669959808771</v>
       </c>
       <c r="D7">
-        <v>485</v>
+        <v>1295</v>
       </c>
       <c r="E7">
-        <v>460.40727488000402</v>
+        <v>1229.334979904385</v>
       </c>
       <c r="F7">
-        <v>8.1466350394521214E-6</v>
+        <v>0.0001890839452720172</v>
       </c>
       <c r="G7">
-        <v>34.708602554815343</v>
+        <v>23.80794295391356</v>
       </c>
       <c r="H7">
-        <v>-120.82086502524569</v>
+        <v>-110.7882354795169</v>
       </c>
       <c r="I7">
-        <v>-58.730907458808403</v>
+        <v>376.5830799127164</v>
       </c>
       <c r="J7">
-        <v>-712.86868829192611</v>
+        <v>49.88525512067186</v>
       </c>
       <c r="K7">
-        <v>1.0193836705770729</v>
+        <v>0.8924796856657287</v>
       </c>
       <c r="L7">
-        <v>1.0498396153852769</v>
+        <v>1.049999860282024</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -895,49 +876,55 @@
       <c r="N7" t="b">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>98</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7">
+        <v>260</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="C8">
-        <v>76.892761709947536</v>
+        <v>205.0473875320754</v>
       </c>
       <c r="D8">
-        <v>486</v>
+        <v>1296</v>
       </c>
       <c r="E8">
-        <v>461.35657025968521</v>
+        <v>1230.284325192453</v>
       </c>
       <c r="F8">
-        <v>9.4833022756120035E-6</v>
+        <v>0.0002587489741091815</v>
       </c>
       <c r="G8">
-        <v>34.669553966686912</v>
+        <v>25.44992291993956</v>
       </c>
       <c r="H8">
-        <v>-120.4831917101541</v>
+        <v>-108.8755988449087</v>
       </c>
       <c r="I8">
-        <v>-60.694331492413582</v>
+        <v>376.3835724287781</v>
       </c>
       <c r="J8">
-        <v>-710.46078551983715</v>
+        <v>49.66518820197495</v>
       </c>
       <c r="K8">
-        <v>1.012694826633564</v>
+        <v>0.8924861141661793</v>
       </c>
       <c r="L8">
-        <v>1.0500208389387811</v>
+        <v>1.049999862348285</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -945,49 +932,55 @@
       <c r="N8" t="b">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>82</v>
-      </c>
-      <c r="P8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>217</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C9">
-        <v>65.501241764621611</v>
+        <v>175.6192999200619</v>
       </c>
       <c r="D9">
-        <v>483</v>
+        <v>1295</v>
       </c>
       <c r="E9">
-        <v>458.50869235235132</v>
+        <v>1229.335099440434</v>
       </c>
       <c r="F9">
-        <v>1.097316094239886E-5</v>
+        <v>0.000349191222845377</v>
       </c>
       <c r="G9">
-        <v>35.02663730984122</v>
+        <v>27.29186933637565</v>
       </c>
       <c r="H9">
-        <v>-120.6362166529708</v>
+        <v>-106.9910565307371</v>
       </c>
       <c r="I9">
-        <v>-56.69678288994465</v>
+        <v>378.3170260324951</v>
       </c>
       <c r="J9">
-        <v>-713.88141541723121</v>
+        <v>49.61386699454813</v>
       </c>
       <c r="K9">
-        <v>1.0193329544573411</v>
+        <v>0.8924177743257736</v>
       </c>
       <c r="L9">
-        <v>1.049791724054121</v>
+        <v>1.049999861166954</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -995,49 +988,55 @@
       <c r="N9" t="b">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>186</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C10">
-        <v>57.906895393527897</v>
+        <v>153.785559287575</v>
       </c>
       <c r="D10">
-        <v>488</v>
+        <v>1296</v>
       </c>
       <c r="E10">
-        <v>463.25516314822318</v>
+        <v>1230.2844743006</v>
       </c>
       <c r="F10">
-        <v>1.393028833831522E-5</v>
+        <v>0.0004560735789531805</v>
       </c>
       <c r="G10">
-        <v>34.88471657870948</v>
+        <v>28.95091010458228</v>
       </c>
       <c r="H10">
-        <v>-120.1527996526676</v>
+        <v>-105.3720214564461</v>
       </c>
       <c r="I10">
-        <v>-63.248012425934952</v>
+        <v>378.5194180577078</v>
       </c>
       <c r="J10">
-        <v>-708.5905856749348</v>
+        <v>49.71189393154054</v>
       </c>
       <c r="K10">
-        <v>1.0127338436333551</v>
+        <v>0.8924043801971694</v>
       </c>
       <c r="L10">
-        <v>1.0499069351760759</v>
+        <v>1.049999861151174</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1045,49 +1044,55 @@
       <c r="N10" t="b">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10">
+        <v>163</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C11">
-        <v>51.261842057161829</v>
+        <v>136.6982817340632</v>
       </c>
       <c r="D11">
-        <v>486</v>
+        <v>1296</v>
       </c>
       <c r="E11">
-        <v>461.35657851445649</v>
+        <v>1230.284535606569</v>
       </c>
       <c r="F11">
-        <v>1.543888876267374E-5</v>
+        <v>0.0005428100883122795</v>
       </c>
       <c r="G11">
-        <v>34.939601490189482</v>
+        <v>30.23795707238877</v>
       </c>
       <c r="H11">
-        <v>-120.07768735122239</v>
+        <v>-104.0282371964519</v>
       </c>
       <c r="I11">
-        <v>-61.404625185197503</v>
+        <v>379.0170098574449</v>
       </c>
       <c r="J11">
-        <v>-708.47505682505937</v>
+        <v>50.42056589004333</v>
       </c>
       <c r="K11">
-        <v>1.012665943035878</v>
+        <v>0.8923738604409082</v>
       </c>
       <c r="L11">
-        <v>1.049840523209367</v>
+        <v>1.049999857589685</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1095,49 +1100,55 @@
       <c r="N11" t="b">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>55</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11">
+        <v>145</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C12">
-        <v>45.566081207748077</v>
+        <v>123.4081561019414</v>
       </c>
       <c r="D12">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="E12">
-        <v>455.66081207748078</v>
+        <v>1234.081561019414</v>
       </c>
       <c r="F12">
-        <v>1.0748774952332949E-5</v>
+        <v>0.0003956152971208517</v>
       </c>
       <c r="G12">
-        <v>35.131674512495643</v>
+        <v>32.97553245429842</v>
       </c>
       <c r="H12">
-        <v>-120.4228919401408</v>
+        <v>-102.0375463107409</v>
       </c>
       <c r="I12">
-        <v>-53.851242592080588</v>
+        <v>370.3926267105873</v>
       </c>
       <c r="J12">
-        <v>-714.94307977710321</v>
+        <v>54.64906285849009</v>
       </c>
       <c r="K12">
-        <v>1.019083072196419</v>
+        <v>0.8926544016224388</v>
       </c>
       <c r="L12">
-        <v>1.049729217222128</v>
+        <v>1.049999843982779</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1145,49 +1156,55 @@
       <c r="N12" t="b">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>49</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12">
+        <v>131</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C13">
-        <v>41.76890806969265</v>
+        <v>112.0166390746081</v>
       </c>
       <c r="D13">
-        <v>484</v>
+        <v>1298</v>
       </c>
       <c r="E13">
-        <v>459.45798876661911</v>
+        <v>1232.183029820689</v>
       </c>
       <c r="F13">
-        <v>1.327964502377199E-5</v>
+        <v>0.0004808720289245284</v>
       </c>
       <c r="G13">
-        <v>34.609708050724819</v>
+        <v>33.7404372676238</v>
       </c>
       <c r="H13">
-        <v>-120.0517358530259</v>
+        <v>-101.1110381924328</v>
       </c>
       <c r="I13">
-        <v>-60.461787544413987</v>
+        <v>373.158376530436</v>
       </c>
       <c r="J13">
-        <v>-706.53320634239333</v>
+        <v>54.84757671350854</v>
       </c>
       <c r="K13">
-        <v>1.012592311498008</v>
+        <v>0.8925489488165915</v>
       </c>
       <c r="L13">
-        <v>1.049766254177581</v>
+        <v>1.04999984060315</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1195,49 +1212,55 @@
       <c r="N13" t="b">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>45</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13">
+        <v>119</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C14">
-        <v>37.97173477971166</v>
+        <v>102.5237086742486</v>
       </c>
       <c r="D14">
-        <v>480</v>
+        <v>1296</v>
       </c>
       <c r="E14">
-        <v>455.66081735654001</v>
+        <v>1230.284504090984</v>
       </c>
       <c r="F14">
-        <v>1.4780205987165121E-5</v>
+        <v>0.0005717742390078017</v>
       </c>
       <c r="G14">
-        <v>34.66472956336623</v>
+        <v>34.49011368045253</v>
       </c>
       <c r="H14">
-        <v>-119.9764382002847</v>
+        <v>-100.2658089683459</v>
       </c>
       <c r="I14">
-        <v>-56.683130316530672</v>
+        <v>375.8426066011401</v>
       </c>
       <c r="J14">
-        <v>-706.42433037540695</v>
+        <v>55.10682262549833</v>
       </c>
       <c r="K14">
-        <v>1.0124555114122391</v>
+        <v>0.892446282916234</v>
       </c>
       <c r="L14">
-        <v>1.0496325710103671</v>
+        <v>1.049999836937866</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1245,49 +1268,55 @@
       <c r="N14" t="b">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>41</v>
-      </c>
-      <c r="P14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14">
+        <v>109</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>35.123854457231417</v>
+        <v>94.92935314065517</v>
       </c>
       <c r="D15">
-        <v>481</v>
+        <v>1300</v>
       </c>
       <c r="E15">
-        <v>456.61010794400852</v>
+        <v>1234.081590828517</v>
       </c>
       <c r="F15">
-        <v>1.294425582841541E-5</v>
+        <v>0.0004956443931676339</v>
       </c>
       <c r="G15">
-        <v>35.217823436608029</v>
+        <v>36.34096828488774</v>
       </c>
       <c r="H15">
-        <v>-120.2873769194661</v>
+        <v>-99.00323866395402</v>
       </c>
       <c r="I15">
-        <v>-54.954806093226672</v>
+        <v>370.0415343518264</v>
       </c>
       <c r="J15">
-        <v>-714.43883699755145</v>
+        <v>57.53200903881717</v>
       </c>
       <c r="K15">
-        <v>1.0188939514563691</v>
+        <v>0.892631310929818</v>
       </c>
       <c r="L15">
-        <v>1.0497564028035671</v>
+        <v>1.049999830363885</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1295,49 +1324,55 @@
       <c r="N15" t="b">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>38</v>
-      </c>
-      <c r="P15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15">
+        <v>101</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>32.275974482508538</v>
+        <v>88.28430286425296</v>
       </c>
       <c r="D16">
-        <v>476</v>
+        <v>1302</v>
       </c>
       <c r="E16">
-        <v>451.86364275511949</v>
+        <v>1235.980240099542</v>
       </c>
       <c r="F16">
-        <v>1.414374749197122E-5</v>
+        <v>0.0005893273484814062</v>
       </c>
       <c r="G16">
-        <v>35.247960315504983</v>
+        <v>36.64681728876937</v>
       </c>
       <c r="H16">
-        <v>-120.22071536430541</v>
+        <v>-98.52625490141372</v>
       </c>
       <c r="I16">
-        <v>-50.257099450580043</v>
+        <v>369.1605349375336</v>
       </c>
       <c r="J16">
-        <v>-714.27168114105734</v>
+        <v>57.32963526649634</v>
       </c>
       <c r="K16">
-        <v>1.0182883975029191</v>
+        <v>0.8926550534077545</v>
       </c>
       <c r="L16">
-        <v>1.0495896666241371</v>
+        <v>1.049999832930907</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1345,49 +1380,55 @@
       <c r="N16" t="b">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16">
+        <v>94</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>35</v>
       </c>
-      <c r="P16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C17">
-        <v>32.275974408506649</v>
+        <v>86.38571114273334</v>
       </c>
       <c r="D17">
-        <v>510</v>
+        <v>1365</v>
       </c>
       <c r="E17">
-        <v>484.13961612759971</v>
+        <v>1295.785667141</v>
       </c>
       <c r="F17">
-        <v>1.4180003450153581E-5</v>
+        <v>0.0005334713109270799</v>
       </c>
       <c r="G17">
-        <v>35.2555499200434</v>
+        <v>37.78067805228749</v>
       </c>
       <c r="H17">
-        <v>-120.22614511703129</v>
+        <v>-97.6557898139029</v>
       </c>
       <c r="I17">
-        <v>-82.511760722116918</v>
+        <v>307.5983795908367</v>
       </c>
       <c r="J17">
-        <v>-714.3246450264445</v>
+        <v>59.08135203722118</v>
       </c>
       <c r="K17">
-        <v>1.0183263016272399</v>
+        <v>0.8918904801941744</v>
       </c>
       <c r="L17">
-        <v>1.0496274737840741</v>
+        <v>1.049999896149524</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1395,49 +1436,55 @@
       <c r="N17" t="b">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>35</v>
-      </c>
-      <c r="P17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>92</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>30.377387564175159</v>
+        <v>80.68994468548783</v>
       </c>
       <c r="D18">
-        <v>512</v>
+        <v>1360</v>
       </c>
       <c r="E18">
-        <v>486.0382010268026</v>
+        <v>1291.039114967805</v>
       </c>
       <c r="F18">
-        <v>1.280212066365394E-5</v>
+        <v>0.0004597715188010243</v>
       </c>
       <c r="G18">
-        <v>34.722969984287452</v>
+        <v>39.84644367180989</v>
       </c>
       <c r="H18">
-        <v>-119.8654006574854</v>
+        <v>-96.33598395258232</v>
       </c>
       <c r="I18">
-        <v>-86.916333866079924</v>
+        <v>310.2880374781236</v>
       </c>
       <c r="J18">
-        <v>-707.39564348616932</v>
+        <v>61.69829310542147</v>
       </c>
       <c r="K18">
-        <v>1.0107655879247031</v>
+        <v>0.8919719418557015</v>
       </c>
       <c r="L18">
-        <v>1.049697154465018</v>
+        <v>1.049999878953779</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1445,49 +1492,55 @@
       <c r="N18" t="b">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>33</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>86</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>28.47880093946598</v>
+        <v>75.94347956594216</v>
       </c>
       <c r="D19">
-        <v>510</v>
+        <v>1360</v>
       </c>
       <c r="E19">
-        <v>484.13961597092162</v>
+        <v>1291.039152621017</v>
       </c>
       <c r="F19">
-        <v>1.414647610731912E-5</v>
+        <v>0.0005265462250186794</v>
       </c>
       <c r="G19">
-        <v>34.775352916698289</v>
+        <v>39.80938568666873</v>
       </c>
       <c r="H19">
-        <v>-119.8320592884025</v>
+        <v>-96.13097996424523</v>
       </c>
       <c r="I19">
-        <v>-84.943200575983965</v>
+        <v>311.096605230622</v>
       </c>
       <c r="J19">
-        <v>-707.52958355590738</v>
+        <v>61.40315899907817</v>
       </c>
       <c r="K19">
-        <v>1.0106406738624629</v>
+        <v>0.8920977840982462</v>
       </c>
       <c r="L19">
-        <v>1.0496952013218981</v>
+        <v>1.049999879720132</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1495,49 +1548,55 @@
       <c r="N19" t="b">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>31</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>81</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C20">
-        <v>26.580214290829861</v>
+        <v>72.14629139292957</v>
       </c>
       <c r="D20">
-        <v>504</v>
+        <v>1368</v>
       </c>
       <c r="E20">
-        <v>478.44385723493758</v>
+        <v>1298.633245072732</v>
       </c>
       <c r="F20">
-        <v>1.53476224619391E-5</v>
+        <v>-3.448248956650724E-05</v>
       </c>
       <c r="G20">
-        <v>35.236097865895047</v>
+        <v>39.44342476525325</v>
       </c>
       <c r="H20">
-        <v>-120.14725322636281</v>
+        <v>-96.20027388153503</v>
       </c>
       <c r="I20">
-        <v>-77.080735350563117</v>
+        <v>305.0119135674692</v>
       </c>
       <c r="J20">
-        <v>-713.56866894297787</v>
+        <v>60.42694092128705</v>
       </c>
       <c r="K20">
-        <v>1.0169774890277079</v>
+        <v>0.8924318068265462</v>
       </c>
       <c r="L20">
-        <v>1.049613547043093</v>
+        <v>1.049999891704972</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1545,11 +1604,17 @@
       <c r="N20" t="b">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>29</v>
-      </c>
-      <c r="P20" t="s">
-        <v>34</v>
+      <c r="O20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>77</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
